--- a/testdata/book.xlsx
+++ b/testdata/book.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofeng-shu33/Documents/tech/excel-to-bin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel-to-bin\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44632E94-5483-C949-B3AD-79C8A2960CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{AA16E651-964B-354B-A5BF-9306FA54DAC5}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -66,8 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,16 +383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3C2B48-F2DE-C74C-B74E-F8A528134039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -406,23 +408,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>134</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -430,7 +430,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>245</v>
       </c>
@@ -439,6 +439,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>